--- a/DataFailureTemplate.xlsx
+++ b/DataFailureTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bendacek/Desktop/aiPortfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A7BC04E-633E-D34C-BCB1-CCDE1AF2DC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1253D19-A863-3A47-8EB0-B0AC078E1790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20880" windowHeight="12600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Data Failure</t>
   </si>
@@ -34,6 +34,33 @@
   </si>
   <si>
     <t>Disadvantage/Considerations</t>
+  </si>
+  <si>
+    <t>Missing Values in Some Cells</t>
+  </si>
+  <si>
+    <t>Impute using the mean/mode of the column</t>
+  </si>
+  <si>
+    <t>Outliers in the data</t>
+  </si>
+  <si>
+    <t>Remove data points with outliers</t>
+  </si>
+  <si>
+    <t>Fallacy of the Average/Too many imputed values in a column can greatly skew the data</t>
+  </si>
+  <si>
+    <t>Good if the dataset is large and the number of outliers is small</t>
+  </si>
+  <si>
+    <t>Inconsistent Typing of Data in a Particular Column</t>
+  </si>
+  <si>
+    <t>Iterate over values in column to normalize the data</t>
+  </si>
+  <si>
+    <t>May be impractical if there are too many different data types in the column. Better to ensure the data can only be inputted in the correct format.</t>
   </si>
 </sst>
 </file>
@@ -88,12 +115,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -432,25 +464,68 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+    <row r="2" spans="1:3" ht="42" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="70" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
